--- a/Ejemplo.xlsx
+++ b/Ejemplo.xlsx
@@ -140,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -156,6 +156,9 @@
     </xf>
     <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf fontId="0" fillId="3" borderId="1" numFmtId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -181,6 +184,42 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2309240" cy="2316237"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="812594614" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="0" flipV="0">
+          <a:off x="6718904" y="0"/>
+          <a:ext cx="2309240" cy="2316237"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
@@ -697,27 +736,28 @@
       <c r="J1" s="5">
         <v>1900</v>
       </c>
+      <c r="L1" s="6"/>
     </row>
     <row r="2" ht="14.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="4"/>
@@ -732,22 +772,22 @@
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="8" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="4"/>
@@ -762,22 +802,22 @@
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="4"/>
@@ -792,29 +832,29 @@
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="2">
         <v>900</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -822,22 +862,22 @@
       <c r="A6" s="2">
         <v>900</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H6" s="4"/>
@@ -852,22 +892,22 @@
       <c r="A7" s="2">
         <v>901</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="4"/>
@@ -893,7 +933,7 @@
       <c r="F8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H8" s="4"/>
@@ -905,5 +945,6 @@
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="0" copies="1"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>